--- a/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
+++ b/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
@@ -451,995 +451,1343 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>000577</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>安信价值精选股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>90.68</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.90</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4799</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4523</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3489</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>010667</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>安信价值回报三年持有期混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>90.39</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>5.35</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000974</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>安信消费医药主题股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>167508</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>81.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000520</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上银新兴价值成长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>84.47</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001399</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>23.45</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001400</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>23.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005965</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005966</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001686</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001687</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004258</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国寿安保稳嘉混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>28.50</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004259</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国寿安保稳嘉混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>28.50</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002035</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>39.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009899</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>上银内需增长股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>48.32</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002770</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>78.48</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002771</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>78.48</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003028</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003029</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004250</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>银河量化优选混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004138</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>上银鑫达灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>81.36</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007393</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>上银未来生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>62.56</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>59.88</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005358</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>80.01</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004393</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>80.84</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>750005</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>39.29</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007518</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>007519</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008954</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010033</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>安信成长精选混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010034</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>安信成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1449,7 +1797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,15 +1818,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005328</t>
+          <t>008954</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源价值策略股票</t>
+          <t>安信价值回报三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.51</t>
+          <t>35.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4818</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003345</t>
+          <t>000577</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合A</t>
+          <t>安信价值精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>35.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0106</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003346</t>
+          <t>001186</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合C</t>
+          <t>富国文体健康股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>23.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003670</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融物联网主题灵活配置混合</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.01</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9907</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1602,25 +2000,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009766</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信平稳双利3个月持有期混合A</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26.66</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8831</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009767</t>
+          <t>010033</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信平稳双利3个月持有期混合C</t>
+          <t>安信成长精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26.66</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000577</t>
+          <t>002770</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信价值精选股票</t>
+          <t>安信新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004138</t>
+          <t>004374</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上银鑫达灵活配置混合</t>
+          <t>华泰保兴吉年丰混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001186</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国文体健康股票A</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4337</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011125</t>
+          <t>000974</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国文体健康股票C</t>
+          <t>安信消费医药主题股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3815</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1770,25 +2228,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>006642</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>华泰保兴吉年利定期开放混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3489</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005359</t>
+          <t>002771</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
+          <t>安信新回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>167508</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>76.71</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007393</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上银未来生活灵活配置混合</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>69.66</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006048</t>
+          <t>000520</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长城中证500指数增强A</t>
+          <t>上银新兴价值成长混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>72.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007413</t>
+          <t>005904</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长城中证500指数增强C</t>
+          <t>华泰保兴成长优选混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009899</t>
+          <t>003986</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上银内需增长股票</t>
+          <t>申万菱信中证500指数优选增强A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006235</t>
+          <t>160813</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东方城镇消费主题混合</t>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>000520</t>
+          <t>004375</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上银新兴价值成长混合</t>
+          <t>华泰保兴吉年丰混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>72.69</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010033</t>
+          <t>005359</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>安信成长精选混合A</t>
+          <t>东方阿尔法精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9.96</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010034</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>安信成长精选混合C</t>
+          <t>广发中证养老产业指数A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9.96</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>004138</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>上银鑫达灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>81.65</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006642</t>
+          <t>007519</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华泰保兴吉年利定期开放混合</t>
+          <t>东方阿尔法优选混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>86.19</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>400023</t>
+          <t>002510</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东方多策略灵活配置混合A</t>
+          <t>申万菱信中证500指数增强A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>81.60</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002068</t>
+          <t>006882</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东方多策略灵活配置混合C</t>
+          <t>华泰保兴健康消费混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>81.60</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006729</t>
+          <t>006883</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>万家中证500指数增强A</t>
+          <t>华泰保兴健康消费混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006730</t>
+          <t>009766</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>万家中证500指数增强C</t>
+          <t>安信平稳双利3个月持有期混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>001399</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数A</t>
+          <t>安信鑫安得利灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002982</t>
+          <t>003028</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数C</t>
+          <t>安信新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>000974</t>
+          <t>003029</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>安信消费医药主题股票</t>
+          <t>安信新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>006882</t>
+          <t>003345</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华泰保兴健康消费混合A</t>
+          <t>安信新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>77.27</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>006883</t>
+          <t>001686</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华泰保兴健康消费混合C</t>
+          <t>安信新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>77.27</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>007393</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>上银未来生活灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
+          <t>69.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010704</t>
+          <t>010034</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>财通智选消费股票C</t>
+          <t>安信成长精选混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>8</v>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>002497</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>东方盛世灵活配置混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>009590</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>东方盛世灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>001399</t>
+          <t>009899</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>安信鑫安得利灵活配置混合A</t>
+          <t>上银内需增长股票</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>23.87</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -2564,15 +3302,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>23.87</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1.27</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2592,15 +3340,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>80.63</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>3.53</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001686</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>安信新动力灵活配置混合A</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>33.11</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>10</v>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2648,15 +3416,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>33.11</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1.19</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2666,25 +3444,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>160813</t>
+          <t>010704</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+          <t>财通智选消费股票C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>80.46</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>750005</t>
+          <t>003346</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>安信平稳增长混合A</t>
+          <t>安信新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>53.58</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2722,26 +3520,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>002035</t>
+          <t>011125</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>安信平稳增长混合C</t>
+          <t>富国文体健康股票C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>53.58</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2750,26 +3558,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>002497</t>
+          <t>007795</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东方盛世灵活配置混合A</t>
+          <t>申万菱信中证500指数增强C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>28.71</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>8</v>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2778,26 +3596,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>009590</t>
+          <t>005328</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东方盛世灵活配置混合C</t>
+          <t>前海开源价值策略股票</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>28.71</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>8</v>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2806,26 +3634,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>002510</t>
+          <t>006048</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数增强A</t>
+          <t>长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>82.10</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2834,26 +3672,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>007795</t>
+          <t>400023</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数增强C</t>
+          <t>东方多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>82.10</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>2</v>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2862,26 +3710,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>167508</t>
+          <t>002068</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
+          <t>东方多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>3</v>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -2890,25 +3748,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>008954</t>
+          <t>009767</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>安信价值回报三年持有期混合A</t>
+          <t>安信平稳双利3个月持有期混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2918,26 +3786,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>010667</t>
+          <t>003670</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>安信价值回报三年持有期混合C</t>
+          <t>中融物联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>3</v>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2946,26 +3824,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>002770</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>安信新回报灵活配置混合A</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>83.08</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2974,26 +3862,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>002771</t>
+          <t>005905</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>安信新回报灵活配置混合C</t>
+          <t>华泰保兴成长优选混合C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>83.08</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -3002,26 +3900,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>005904</t>
+          <t>750005</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合A</t>
+          <t>安信平稳增长混合A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>2</v>
+          <t>53.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -3030,26 +3938,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>005905</t>
+          <t>006235</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合C</t>
+          <t>东方城镇消费主题混合</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -3058,26 +3976,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>002982</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
+          <t>广发中证养老产业指数C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>4</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -3086,25 +4014,35 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>003028</t>
+          <t>007794</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合A</t>
+          <t>申万菱信中证500指数优选增强C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>34.57</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3114,26 +4052,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>003029</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合C</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>34.57</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>4</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -3142,25 +4090,35 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>003986</t>
+          <t>007413</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强A</t>
+          <t>长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3170,26 +4128,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>007794</t>
+          <t>004456</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强C</t>
+          <t>兴银消费新趋势灵活配置混合</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>4</v>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -3198,25 +4166,35 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>004374</t>
+          <t>002035</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华泰保兴吉年丰混合A</t>
+          <t>安信平稳增长混合C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
+          <t>53.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3226,26 +4204,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>004375</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华泰保兴吉年丰混合C</t>
+          <t>万家中证500指数增强C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>3</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -3254,26 +4242,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>004456</t>
+          <t>010667</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>兴银消费新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>88.57</t>
-        </is>
-      </c>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>7</v>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
+++ b/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4250,7 +4251,6 @@
           <t>安信价值回报三年持有期混合C</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>89.14</t>
@@ -4265,6 +4265,1618 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5105</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7091</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6794</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6167</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3559</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
+++ b/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5883,4 +5884,2416 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0232</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4083</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2475</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0304</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9312</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7124</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6064</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3838</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3590</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
+++ b/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8296,4 +8297,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
+++ b/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8305,7 +8306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8316,17 +8317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8336,14 +8357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.59</v>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8512</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8352,14 +8395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.199999999999999</v>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -8368,14 +8433,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.82</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4927</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -8384,13 +8471,1893 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010036</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010174</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>英大智享债券A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010175</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>英大智享债券C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010038</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>34</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
+++ b/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10256,7 +10257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10267,17 +10268,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10287,14 +10308,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.56</v>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -10303,14 +10346,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.59</v>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -10319,14 +10384,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.199999999999999</v>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -10335,14 +10422,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>64</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.82</v>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -10351,13 +10460,1115 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
+++ b/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11451,7 +11452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11462,17 +11463,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11482,14 +11503,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.9</v>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -11498,14 +11541,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.56</v>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -11514,14 +11579,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.59</v>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -11530,14 +11617,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>41</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.199999999999999</v>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -11546,14 +11655,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>64</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.82</v>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -11562,13 +11693,1585 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014113</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>41</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>64</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>34</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
+++ b/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>3.6</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>7.56</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>13.59</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>9.199999999999999</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
-        <v>14.82</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>64</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>34</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.94</v>
       </c>
     </row>
@@ -600,6 +617,1240 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信企业价值优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014113</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015753</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +3536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3479,7 +4730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5429,7 +6680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7841,7 +9092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9453,7 +10704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11934,7 +13185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
+++ b/数据整理/stocks/A股/深证主板/002867-周大生.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>1.41</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>3.6</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>7.56</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>13.59</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D7" t="n">
-        <v>9.199999999999999</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
-        <v>14.82</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1376 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>64</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>34</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>8.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4799</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4523</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3489</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1980,1390 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信企业价值优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014113</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>32.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015753</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1850,7 +4597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3536,7 +6283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4730,7 +7477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6680,7 +9427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9092,7 +11839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10704,7 +13451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13183,1350 +15930,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008954</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0089</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000577</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>安信价值精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>38.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8899</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005358</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4002</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002770</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4799</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010033</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信成长精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4536</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>21.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>59.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4523</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000974</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安信消费医药主题股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3489</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007518</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3441</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>167508</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>81.93</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2187</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002771</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.48</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1613</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1547</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004138</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>上银鑫达灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>81.36</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1305</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000520</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上银新兴价值成长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>84.47</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1139</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007519</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1087</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0701</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003029</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0681</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001686</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0676</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003028</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0653</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001399</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>23.45</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0642</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001400</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>23.45</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0535</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007393</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>上银未来生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>62.56</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0519</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004258</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国寿安保稳嘉混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>28.50</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0477</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009899</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>上银内需增长股票</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>48.32</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0439</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001687</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>安信新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0313</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004393</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>80.84</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>010034</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>安信成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>80.01</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004250</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>银河量化优选混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005965</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005966</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>750005</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>39.29</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>004259</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国寿安保稳嘉混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>28.50</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002035</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>39.29</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010667</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>